--- a/Math Statistics/Задача 1.2.xlsx
+++ b/Math Statistics/Задача 1.2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\study\Math Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="6260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="6260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Входные данные" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>№</t>
   </si>
@@ -207,23 +207,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -327,7 +327,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89E448D7-B380-4A9D-A906-ECE3273D89F0}" type="CELLRANGE">
+                    <a:fld id="{E97E179D-BC84-4183-AC9A-C87D67A3A305}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -336,7 +336,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>: </a:t>
                     </a:r>
-                    <a:fld id="{661A0CDB-3049-4B79-A6F6-992DFD6AC4DB}" type="VALUE">
+                    <a:fld id="{641DF04F-11C7-428B-ABC4-09C5A1198C71}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ]</a:t>
@@ -373,7 +373,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2709D28B-DF77-4962-972E-9B932C6AB573}" type="CELLRANGE">
+                    <a:fld id="{970B33B3-E303-4F16-95BB-C553B659C320}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -382,7 +382,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>: </a:t>
                     </a:r>
-                    <a:fld id="{CEBD052B-4C18-448A-AC63-33404D89E5FC}" type="VALUE">
+                    <a:fld id="{012D62F3-BFC1-436F-A10F-B70F961B397B}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ]</a:t>
@@ -419,7 +419,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7706898-42BB-46B1-B62E-90679A3BF53B}" type="CELLRANGE">
+                    <a:fld id="{464D89CE-B97C-46A7-9B53-754B0ED2A7D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -428,7 +428,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>: </a:t>
                     </a:r>
-                    <a:fld id="{ACF8970B-2D7A-4FE5-872E-7AFBDC8E08A5}" type="VALUE">
+                    <a:fld id="{4369BF9A-AE1A-429D-95E2-C753C7887F1F}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ]</a:t>
@@ -465,7 +465,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0174D812-7147-4A17-9E1C-5CCA3344B114}" type="CELLRANGE">
+                    <a:fld id="{3D56FE06-AA75-4392-BC09-560AC65C117F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -474,7 +474,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>: </a:t>
                     </a:r>
-                    <a:fld id="{CE23C76B-DCA2-4C74-942E-5B21DA356DCA}" type="VALUE">
+                    <a:fld id="{CF9CD7B0-0431-486D-B4BE-5754D46775B7}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ]</a:t>
@@ -511,7 +511,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48C17990-C1CA-4D6D-889D-1622A6164784}" type="CELLRANGE">
+                    <a:fld id="{2052E98D-9BBC-42F7-B15A-0BD9F7AE1344}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -520,7 +520,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>: </a:t>
                     </a:r>
-                    <a:fld id="{BD888826-AF9F-4DB8-B1C4-F294CB5D7A43}" type="VALUE">
+                    <a:fld id="{F8DE819E-5DBA-4973-8090-B5E7193F7A14}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ]</a:t>
@@ -557,7 +557,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B3EF60B-EB0D-4112-998E-29F9933D9B1D}" type="CELLRANGE">
+                    <a:fld id="{35AC12B9-BCBC-46A4-9806-29554D737627}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -566,7 +566,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>: </a:t>
                     </a:r>
-                    <a:fld id="{1FC7376F-A4A1-451C-89ED-6A06B6CCDBC8}" type="VALUE">
+                    <a:fld id="{04070EAB-A1C6-45D1-B006-A1F615BCB609}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ]</a:t>
@@ -603,7 +603,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62DF2DFB-F6A8-4194-8C92-1278A790D412}" type="CELLRANGE">
+                    <a:fld id="{5B88D065-6B67-42FA-8123-7B9704847BCD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -612,7 +612,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>: </a:t>
                     </a:r>
-                    <a:fld id="{18083C12-58E6-4294-83F2-2789F05F5600}" type="VALUE">
+                    <a:fld id="{5D6FD3D8-A7B0-418C-A864-12FF125DB2B5}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ]</a:t>
@@ -649,7 +649,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D816E2B-2FC6-4076-A805-706C179BE106}" type="CELLRANGE">
+                    <a:fld id="{0A895BA7-6802-4B8F-A02A-892C7818AE24}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ДИАПАЗОН ЯЧЕЕК]</a:t>
@@ -658,7 +658,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>: </a:t>
                     </a:r>
-                    <a:fld id="{B48BC629-E321-4A84-92BA-7E508027FE33}" type="VALUE">
+                    <a:fld id="{B1A22C24-B5F3-4825-B75A-8244309B4B4E}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[ЗНАЧЕНИЕ]</a:t>
@@ -1520,16 +1520,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>250825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>441325</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1816,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2095,192 +2095,192 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
         <f>SUM(B3:Y3)/COUNTA(B2:Y2)</f>
         <v>51.541666666666664</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
         <f>SUM(B4:Y4)/COUNTA(B3:Y3)</f>
         <v>2802.9583333333335</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
         <f>SUM(B4:Y4)/COUNTA(B2:Y2)-F7*F7</f>
         <v>146.41493055555611</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="11" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="11">
         <f>SQRT(F9)</f>
         <v>12.100203740249835</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="13" spans="1:25" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="13">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10">
         <f>SQRT(COUNTA(B2:Y2)/(COUNTA(B2:Y2)-1))*F11</f>
         <v>12.360452948878931</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="15" spans="1:25" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="13">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="10">
         <f>F13/SQRT(24)</f>
         <v>2.5230668928694193</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="13">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="10">
         <f>F17*F15</f>
         <v>0</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:M11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:M13"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="F8:M8"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="F15:M15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2289,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K7"/>
+  <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:J7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2302,7 +2302,7 @@
     <col min="3" max="10" width="6.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -2396,11 +2396,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:13" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
@@ -2420,11 +2420,11 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3">
         <f>COUNTIFS('Входные данные'!$B$3:$Y$3,"&gt;="&amp;C2,'Входные данные'!$B$3:$Y$3,"&lt;"&amp;C3)</f>
         <v>0</v>
@@ -2462,11 +2462,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3">
         <f>ROUND(C6/10, 3)</f>
         <v>0</v>
@@ -2500,8 +2500,251 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <f>C6*C4</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:J8" si="1">D6*D4</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <f>C6*C4*C4</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:J9" si="2">D6*D4*D4</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>6400</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>17500</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>21600</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>19600</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <f>SUM(C8:J8)/SUM(C6:J6)</f>
+        <v>51.666666666666664</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
+        <f>SUM(C9:J9)/SUM(C6:J6)</f>
+        <v>2825</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
+        <f>F14-F13*F13</f>
+        <v>155.55555555555566</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="11">
+        <f>SQRT(F15)</f>
+        <v>12.472191289246476</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10">
+        <f>SQRT(SUM(C6:J6)/(SUM(C6:J6)-1))*F16</f>
+        <v>12.740441145412127</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10">
+        <f>F17/SQRT(SUM(C6:J6))</f>
+        <v>2.6006316586849811</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10">
+        <f>F19*F18</f>
+        <v>5.3833075334779101</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="19">
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:M15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:M13"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
